--- a/venv/assets/topics.xlsx
+++ b/venv/assets/topics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ask-Banky-Classifier\venv\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472C40CB-8A08-4293-9AA9-80ABFE6F5AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E908BC9A-1245-413F-81DA-E6D6161BA189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="3132" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>تحويلات</t>
+  </si>
+  <si>
+    <t>الذهب</t>
+  </si>
+  <si>
+    <t>معلومة</t>
   </si>
 </sst>
 </file>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,6 +469,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/venv/assets/topics.xlsx
+++ b/venv/assets/topics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ask-Banky-Classifier\venv\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E908BC9A-1245-413F-81DA-E6D6161BA189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08DC4CE-9205-4A35-BCDF-E6F3D64C16F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="3132" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/venv/assets/topics.xlsx
+++ b/venv/assets/topics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ask-Banky-Classifier\venv\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08DC4CE-9205-4A35-BCDF-E6F3D64C16F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB87BF44-1795-4C90-8A5A-CFC29DCE1FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/venv/assets/topics.xlsx
+++ b/venv/assets/topics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ask-Banky-Classifier\venv\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB87BF44-1795-4C90-8A5A-CFC29DCE1FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A98CC3F-792F-43E8-88E8-965BFA052D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>معلومة</t>
+  </si>
+  <si>
+    <t>data_size</t>
   </si>
 </sst>
 </file>
@@ -381,108 +384,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
+      </c>
+      <c r="C12">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
